--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="13250" windowHeight="6200"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:L6"/>
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -36,47 +40,34 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>srikar</t>
-  </si>
-  <si>
-    <t>indraganti</t>
-  </si>
-  <si>
-    <t>srikar97</t>
-  </si>
-  <si>
-    <t>test09@gmail.com</t>
-  </si>
-  <si>
-    <t>tets123</t>
-  </si>
-  <si>
-    <t>srikar09@gmail.com</t>
-  </si>
-  <si>
-    <t>raghavendra</t>
-  </si>
-  <si>
-    <t>Indraganti</t>
-  </si>
-  <si>
-    <t>srikar021@gamil.com</t>
+    <t>ballu</t>
+  </si>
+  <si>
+    <t>bhai</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>ballu123</t>
+  </si>
+  <si>
+    <t>balll123</t>
+  </si>
+  <si>
+    <t>ballusam1@gmail.com</t>
+  </si>
+  <si>
+    <t>ballppppppp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>assert</t>
   </si>
   <si>
     <t>MY DASHBOARD</t>
-  </si>
-  <si>
-    <t>srikar011@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY DASHBOARD
-</t>
   </si>
 </sst>
 </file>
@@ -97,6 +88,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,24 +110,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,39 +144,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -248,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,166 +255,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -426,19 +398,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -461,21 +433,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -484,30 +456,30 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -521,17 +493,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -542,29 +517,34 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="13250" windowHeight="6200"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15260" windowHeight="2280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -40,6 +35,22 @@
     <t>confirmpassword</t>
   </si>
   <si>
+    <t>tets123</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>MY DASHBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY DASHBOARD
+</t>
+  </si>
+  <si>
+    <t>ballu123</t>
+  </si>
+  <si>
     <t>ballu</t>
   </si>
   <si>
@@ -49,25 +60,10 @@
     <t>sam</t>
   </si>
   <si>
-    <t>ballu123</t>
-  </si>
-  <si>
     <t>balll123</t>
   </si>
   <si>
-    <t>ballusam1@gmail.com</t>
-  </si>
-  <si>
-    <t>ballppppppp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>assert</t>
-  </si>
-  <si>
-    <t>MY DASHBOARD</t>
+    <t>ballusam12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -88,7 +84,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,26 +105,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -144,39 +135,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,142 +244,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -398,19 +411,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -433,53 +446,53 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -493,20 +506,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -517,34 +527,29 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
